--- a/jadex-applications-micro/EvalUni_SSPvsAwarenessNoservices.xlsx
+++ b/jadex-applications-micro/EvalUni_SSPvsAwarenessNoservices.xlsx
@@ -1837,115 +1837,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2.8021720000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>468</c:v>
+                  <c:v>477.63786900000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>286</c:v>
+                  <c:v>291.60996699999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>266.638553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>266</c:v>
+                  <c:v>260.65024399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>233</c:v>
+                  <c:v>256.72605700000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>236</c:v>
+                  <c:v>266.43570299999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>244.072666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>230</c:v>
+                  <c:v>253.92962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>242</c:v>
+                  <c:v>262.26942400000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>254.409277</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>279.64783699999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>262.29145999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>250.79449700000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23</c:v>
+                  <c:v>254.472365</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11</c:v>
+                  <c:v>253.45902000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23</c:v>
+                  <c:v>256.69194700000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>241.54096200000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16</c:v>
+                  <c:v>249.44940600000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30</c:v>
+                  <c:v>253.53931499999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>249.09864400000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37</c:v>
+                  <c:v>274.85912200000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19</c:v>
+                  <c:v>270.96330899999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18</c:v>
+                  <c:v>241.975943</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26</c:v>
+                  <c:v>240.927582</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47</c:v>
+                  <c:v>244.390525</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>262.69595299999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21</c:v>
+                  <c:v>246.474873</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>253.73824099999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>46</c:v>
+                  <c:v>243.653684</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>38</c:v>
+                  <c:v>246.84223700000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>487</c:v>
+                  <c:v>238.16706600000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>65</c:v>
+                  <c:v>254.79596000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>31</c:v>
+                  <c:v>245.395419</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3352</c:v>
+                  <c:v>240.64775700000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>139</c:v>
+                  <c:v>252.22773000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8680</c:v>
+                  <c:v>262.24678499999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>252.377454</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>239.456615</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>240.30363600000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>257.49942399999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>246.101471</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>245.05069399999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>282.89072599999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>248.81670700000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>254.47840299999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>261.05715199999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>251.95334</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>280.46769</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>267.72525200000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>257.87010800000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>284.89477699999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>282.60335400000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>293.47365400000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>248.346408</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>247.06440599999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>272.458123</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>251.180577</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>258.07356199999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>305.42250200000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>282.81012800000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>260.32966800000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>301.92635300000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>317.701888</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>268.26528000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>295.937138</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>265.71999199999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>268.740409</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>342.14232800000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>288.03744799999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>258.283053</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>306.80079799999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>287.45183800000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>317.46734099999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>296.68967700000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>325.50196399999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>248.884625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>335.64840299999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>296.68635699999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>343.18887899999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>289.85434600000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>271.31376999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>279.128939</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>264.809279</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>265.78127000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>330.78603299999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>303.26600999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>256.36171100000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>263.96014500000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>336.07432799999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>608.46785199999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>386.726225</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>286.59153500000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>291.39323200000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>293.27201100000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>277.12579299999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>270.14556900000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>272.07777900000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>257.75842</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>286.05694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3137,7 +3326,7 @@
   <dimension ref="A1:N203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="H1" sqref="H1:N133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>1.5020579999999999</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>2.8021720000000001</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -3253,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.64326499999999998</v>
       </c>
       <c r="L3">
-        <v>468</v>
+        <v>477.63786900000002</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -3291,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.2008200000000002</v>
       </c>
       <c r="L4">
-        <v>286</v>
+        <v>291.60996699999998</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -3329,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.1289579999999999</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>266.638553</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -3367,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.43015100000000001</v>
       </c>
       <c r="L6">
-        <v>266</v>
+        <v>260.65024399999999</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -3405,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.24390400000000001</v>
       </c>
       <c r="L7">
-        <v>233</v>
+        <v>256.72605700000003</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -3443,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.39211600000000002</v>
       </c>
       <c r="L8">
-        <v>236</v>
+        <v>266.43570299999999</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -3481,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.381552</v>
       </c>
       <c r="L9">
-        <v>12</v>
+        <v>244.072666</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -3519,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.315444</v>
       </c>
       <c r="L10">
-        <v>230</v>
+        <v>253.92962</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -3557,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.210397</v>
       </c>
       <c r="L11">
-        <v>242</v>
+        <v>262.26942400000001</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -3595,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.49746600000000002</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>254.409277</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3633,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.32238699999999998</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>279.64783699999998</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -3671,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.28616399999999997</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>262.29145999999997</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -3709,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.25356299999999998</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>250.79449700000001</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -3747,10 +3936,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>6.6113499999999998</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>254.472365</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -3785,10 +3974,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.54998999999999998</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>253.45902000000001</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -3823,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15</v>
+        <v>0.32661299999999999</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>256.69194700000003</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3861,10 +4050,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.27529700000000001</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>241.54096200000001</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -3899,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.26835399999999998</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>249.44940600000001</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3937,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.296126</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>253.53931499999999</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3975,10 +4164,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14</v>
+        <v>0.32872600000000002</v>
       </c>
       <c r="L22">
-        <v>12</v>
+        <v>249.09864400000001</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -4013,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.26443</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>274.85912200000001</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -4051,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>0.198322</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>270.96330899999998</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -4089,10 +4278,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.30850100000000003</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>241.975943</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4127,10 +4316,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.37521199999999999</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>240.927582</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -4165,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>0.82528699999999999</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>244.390525</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -4203,10 +4392,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>0.19711500000000001</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>262.69595299999997</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -4241,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>0.33385799999999999</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>246.474873</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4279,10 +4468,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0.27348600000000001</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>253.73824099999999</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4317,10 +4506,10 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.30427500000000002</v>
       </c>
       <c r="L31">
-        <v>46</v>
+        <v>243.653684</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -4355,10 +4544,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.26926</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>246.84223700000001</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -4393,10 +4582,10 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>0.34200799999999998</v>
       </c>
       <c r="L33">
-        <v>487</v>
+        <v>238.16706600000001</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4431,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.37309999999999999</v>
       </c>
       <c r="L34">
-        <v>65</v>
+        <v>254.79596000000001</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -4469,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>160</v>
+        <v>1.1063190000000001</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>245.395419</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -4507,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>0.33868799999999999</v>
       </c>
       <c r="L36">
-        <v>3352</v>
+        <v>240.64775700000001</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -4545,10 +4734,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>0.28193699999999999</v>
       </c>
       <c r="L37">
-        <v>139</v>
+        <v>252.22773000000001</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -4583,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>236</v>
+        <v>0.30367100000000002</v>
       </c>
       <c r="L38">
-        <v>8680</v>
+        <v>262.24678499999999</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -4611,6 +4800,24 @@
       <c r="F39">
         <v>0</v>
       </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>38</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0.57353500000000002</v>
+      </c>
+      <c r="L39">
+        <v>252.377454</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -4631,6 +4838,24 @@
       <c r="F40">
         <v>0</v>
       </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>39</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>8.1973249999999993</v>
+      </c>
+      <c r="L40">
+        <v>239.456615</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -4651,6 +4876,24 @@
       <c r="F41">
         <v>0</v>
       </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>40</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.76702700000000001</v>
+      </c>
+      <c r="L41">
+        <v>240.30363600000001</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -4671,6 +4914,24 @@
       <c r="F42">
         <v>0</v>
       </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>41</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>3.1598760000000001</v>
+      </c>
+      <c r="L42">
+        <v>257.49942399999998</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -4691,6 +4952,24 @@
       <c r="F43">
         <v>0</v>
       </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>42</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1.376484</v>
+      </c>
+      <c r="L43">
+        <v>246.101471</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -4711,6 +4990,24 @@
       <c r="F44">
         <v>0</v>
       </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>43</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.27891899999999997</v>
+      </c>
+      <c r="L44">
+        <v>245.05069399999999</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -4731,6 +5028,24 @@
       <c r="F45">
         <v>0</v>
       </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>44</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.29250300000000001</v>
+      </c>
+      <c r="L45">
+        <v>282.89072599999997</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -4751,6 +5066,24 @@
       <c r="F46">
         <v>0</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>45</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0.28555999999999998</v>
+      </c>
+      <c r="L46">
+        <v>248.81670700000001</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -4771,6 +5104,24 @@
       <c r="F47">
         <v>0</v>
       </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>46</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0.43558400000000003</v>
+      </c>
+      <c r="L47">
+        <v>254.47840299999999</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -4791,8 +5142,26 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>47</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0.36706299999999997</v>
+      </c>
+      <c r="L48">
+        <v>261.05715199999997</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4811,8 +5180,26 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>48</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1.869121</v>
+      </c>
+      <c r="L49">
+        <v>251.95334</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4831,8 +5218,26 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>49</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0.263826</v>
+      </c>
+      <c r="L50">
+        <v>280.46769</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -4851,8 +5256,26 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>50</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>4.3443769999999997</v>
+      </c>
+      <c r="L51">
+        <v>267.72525200000001</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -4871,8 +5294,26 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>51</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0.37581700000000001</v>
+      </c>
+      <c r="L52">
+        <v>257.87010800000002</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4891,8 +5332,26 @@
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>52</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0.249337</v>
+      </c>
+      <c r="L53">
+        <v>284.89477699999998</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -4911,8 +5370,26 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>53</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0.22337699999999999</v>
+      </c>
+      <c r="L54">
+        <v>282.60335400000002</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -4931,8 +5408,26 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>54</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0.25537399999999999</v>
+      </c>
+      <c r="L55">
+        <v>293.47365400000001</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -4951,8 +5446,26 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>55</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0.252355</v>
+      </c>
+      <c r="L56">
+        <v>248.346408</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4971,8 +5484,26 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>56</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0.29250199999999998</v>
+      </c>
+      <c r="L57">
+        <v>247.06440599999999</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -4991,8 +5522,26 @@
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>57</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0.26443</v>
+      </c>
+      <c r="L58">
+        <v>272.458123</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -5011,8 +5560,26 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>58</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0.335065</v>
+      </c>
+      <c r="L59">
+        <v>251.180577</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -5031,8 +5598,26 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>59</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0.249638</v>
+      </c>
+      <c r="L60">
+        <v>258.07356199999998</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -5051,8 +5636,26 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>60</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0.26141199999999998</v>
+      </c>
+      <c r="L61">
+        <v>305.42250200000001</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -5071,8 +5674,26 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>61</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0.36766700000000002</v>
+      </c>
+      <c r="L62">
+        <v>282.81012800000002</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -5091,8 +5712,26 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>62</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0.25627899999999998</v>
+      </c>
+      <c r="L63">
+        <v>260.32966800000003</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -5111,8 +5750,26 @@
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>63</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0.21915100000000001</v>
+      </c>
+      <c r="L64">
+        <v>301.92635300000001</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -5131,8 +5788,26 @@
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>64</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0.25899699999999998</v>
+      </c>
+      <c r="L65">
+        <v>317.701888</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -5151,8 +5826,26 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>65</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0.325708</v>
+      </c>
+      <c r="L66">
+        <v>268.26528000000002</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -5171,8 +5864,26 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>66</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0.28435300000000002</v>
+      </c>
+      <c r="L67">
+        <v>295.937138</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -5191,8 +5902,26 @@
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>67</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0.26443</v>
+      </c>
+      <c r="L68">
+        <v>265.71999199999999</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -5211,8 +5940,26 @@
       <c r="F69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>68</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0.26322200000000001</v>
+      </c>
+      <c r="L69">
+        <v>268.740409</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -5231,8 +5978,26 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>69</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0.25356299999999998</v>
+      </c>
+      <c r="L70">
+        <v>342.14232800000002</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -5251,8 +6016,26 @@
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>70</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0.325104</v>
+      </c>
+      <c r="L71">
+        <v>288.03744799999998</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -5271,8 +6054,26 @@
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>71</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0.261411</v>
+      </c>
+      <c r="L72">
+        <v>258.283053</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -5291,8 +6092,26 @@
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>72</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0.24299799999999999</v>
+      </c>
+      <c r="L73">
+        <v>306.80079799999999</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -5311,8 +6130,26 @@
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>73</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>14.830107</v>
+      </c>
+      <c r="L74">
+        <v>287.45183800000001</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -5331,8 +6168,26 @@
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>74</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>4.356452</v>
+      </c>
+      <c r="L75">
+        <v>317.46734099999998</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -5351,8 +6206,26 @@
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>75</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0.136743</v>
+      </c>
+      <c r="L76">
+        <v>296.68967700000002</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -5371,8 +6244,26 @@
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>76</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0.37038300000000002</v>
+      </c>
+      <c r="L77">
+        <v>325.50196399999999</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -5391,8 +6282,26 @@
       <c r="F78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>77</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0.418379</v>
+      </c>
+      <c r="L78">
+        <v>248.884625</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -5411,8 +6320,26 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>78</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0.49988100000000002</v>
+      </c>
+      <c r="L79">
+        <v>335.64840299999997</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -5431,8 +6358,26 @@
       <c r="F80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>79</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0.30276599999999998</v>
+      </c>
+      <c r="L80">
+        <v>296.68635699999999</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -5451,8 +6396,26 @@
       <c r="F81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>80</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>5.5696289999999999</v>
+      </c>
+      <c r="L81">
+        <v>343.18887899999999</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -5471,8 +6434,26 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>81</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0.381552</v>
+      </c>
+      <c r="L82">
+        <v>289.85434600000002</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -5491,8 +6472,26 @@
       <c r="F83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>82</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>2.663316</v>
+      </c>
+      <c r="L83">
+        <v>271.31376999999998</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -5511,8 +6510,26 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>83</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0.123159</v>
+      </c>
+      <c r="L84">
+        <v>279.128939</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -5531,8 +6548,26 @@
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>84</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>6.6596469999999997</v>
+      </c>
+      <c r="L85">
+        <v>264.809279</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -5551,8 +6586,26 @@
       <c r="F86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>85</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0.2596</v>
+      </c>
+      <c r="L86">
+        <v>265.78127000000001</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -5571,8 +6624,26 @@
       <c r="F87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>86</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0.27891899999999997</v>
+      </c>
+      <c r="L87">
+        <v>330.78603299999997</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -5591,8 +6662,26 @@
       <c r="F88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>87</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>15.359871999999999</v>
+      </c>
+      <c r="L88">
+        <v>303.26600999999999</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -5611,8 +6700,26 @@
       <c r="F89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>88</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0.37883499999999998</v>
+      </c>
+      <c r="L89">
+        <v>256.36171100000001</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -5631,8 +6738,26 @@
       <c r="F90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>89</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0.28948400000000002</v>
+      </c>
+      <c r="L90">
+        <v>263.96014500000001</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -5651,8 +6776,26 @@
       <c r="F91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>90</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0.33657500000000001</v>
+      </c>
+      <c r="L91">
+        <v>336.07432799999998</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -5671,8 +6814,26 @@
       <c r="F92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>91</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0.322689</v>
+      </c>
+      <c r="L92">
+        <v>608.46785199999999</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3</v>
       </c>
@@ -5691,8 +6852,26 @@
       <c r="F93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>92</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0.2596</v>
+      </c>
+      <c r="L93">
+        <v>386.726225</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -5711,8 +6890,26 @@
       <c r="F94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>93</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0.28284300000000001</v>
+      </c>
+      <c r="L94">
+        <v>286.59153500000002</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -5731,8 +6928,26 @@
       <c r="F95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>94</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0.29793700000000001</v>
+      </c>
+      <c r="L95">
+        <v>291.39323200000001</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -5751,8 +6966,26 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>95</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0.44494299999999998</v>
+      </c>
+      <c r="L96">
+        <v>293.27201100000002</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3</v>
       </c>
@@ -5771,8 +7004,26 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>96</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>5.2297339999999997</v>
+      </c>
+      <c r="L97">
+        <v>277.12579299999999</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3</v>
       </c>
@@ -5791,8 +7042,26 @@
       <c r="F98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>97</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0.244809</v>
+      </c>
+      <c r="L98">
+        <v>270.14556900000002</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3</v>
       </c>
@@ -5811,8 +7080,26 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>98</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0.26231599999999999</v>
+      </c>
+      <c r="L99">
+        <v>272.07777900000002</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -5831,8 +7118,26 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>99</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0.28012599999999999</v>
+      </c>
+      <c r="L100">
+        <v>257.75842</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3</v>
       </c>
@@ -5851,8 +7156,26 @@
       <c r="F101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0.64839599999999997</v>
+      </c>
+      <c r="L101">
+        <v>286.05694</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3</v>
       </c>
@@ -5871,8 +7194,26 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>101</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>19.666516999999999</v>
+      </c>
+      <c r="L102">
+        <v>268.78659299999998</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
@@ -5892,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3</v>
       </c>
@@ -5912,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3</v>
       </c>
@@ -5932,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -5952,7 +7293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -5972,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -5992,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -6012,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
@@ -6032,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3</v>
       </c>
@@ -6052,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>

--- a/jadex-applications-micro/EvalUni_SSPvsAwarenessNoservices.xlsx
+++ b/jadex-applications-micro/EvalUni_SSPvsAwarenessNoservices.xlsx
@@ -124,38 +124,16 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>SP: Settings: '-spcnt 3 -platformcnt -1 -personcnt 0'</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Awa: Settings: '-spcnt 0 -platformcnt -1 -personcnt 0'</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>Tabelle1!$R$3</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Settings: '-spcnt 3 -platformcnt -1 -personcnt 0'
+Settings: '-spcnt 0 -platformcnt -1 -personcnt 0'</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
@@ -194,659 +172,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Creation Time (SP)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$D$2:$D$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FF54-486C-B248-FC407F0B2126}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$E$1</c:f>
@@ -1497,7 +824,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$L$1</c:f>
@@ -2398,10 +1725,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3323,15 +2646,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N203"/>
+  <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:N133"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3375,7 +2698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3413,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3450,8 +2773,13 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R3" t="str">
+        <f>G1&amp;CHAR(10)&amp;N1</f>
+        <v>Settings: '-spcnt 3 -platformcnt -1 -personcnt 0'
+Settings: '-spcnt 0 -platformcnt -1 -personcnt 0'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3489,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3527,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3565,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3603,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3641,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -3679,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -3717,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3755,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3793,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -3831,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3869,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3907,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
